--- a/experiments/retrieval.xlsx
+++ b/experiments/retrieval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CQS\Code\ChinaOpenDataPortal\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B4E974-4606-439E-B378-9603F2C51C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383240CF-6819-4A82-B8C9-9D9045FB56BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>BM25</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>runtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -204,16 +208,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,22 +508,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -604,12 +607,12 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -646,35 +649,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C958D584-1DF3-4EC3-971C-F648E4F7E223}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="9" style="8"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -690,14 +696,14 @@
       <c r="E2">
         <v>12.16</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>8.7238000000000007</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -713,14 +719,14 @@
       <c r="E3">
         <v>12.16</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>88.201599999999999</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -736,14 +742,21 @@
       <c r="E4">
         <v>4.54</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>323.34479999999996</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -759,14 +772,21 @@
       <c r="E5">
         <v>2.72</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>716.13710000000003</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N5" s="5"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -782,14 +802,15 @@
       <c r="E6">
         <v>2.02</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1280.7843</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -805,14 +826,15 @@
       <c r="E7">
         <v>1.82</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>1986.8932</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -828,14 +850,21 @@
       <c r="E8">
         <v>12.47</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>43.266100000000002</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -851,14 +880,14 @@
       <c r="E9">
         <v>12.47</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>120.75</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -874,14 +903,14 @@
       <c r="E10">
         <v>4.87</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>348.27819999999997</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -897,14 +926,14 @@
       <c r="E11">
         <v>1.63</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>777.89710000000002</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -920,14 +949,14 @@
       <c r="E12">
         <v>0.83</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>1332.2217000000001</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -943,14 +972,14 @@
       <c r="E13">
         <v>0.52</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>2051.0200999999997</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -966,14 +995,14 @@
       <c r="E14">
         <v>14.21</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>44.377000000000002</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -989,14 +1018,14 @@
       <c r="E15">
         <v>14.21</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>122.2218</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1041,7 @@
       <c r="E16">
         <v>7.3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>349.0181</v>
       </c>
       <c r="G16" t="s">
@@ -1035,7 +1064,7 @@
       <c r="E17">
         <v>5.13</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>747.39509999999996</v>
       </c>
       <c r="G17" t="s">
@@ -1058,7 +1087,7 @@
       <c r="E18">
         <v>4.13</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>1328.7559999999999</v>
       </c>
       <c r="G18" t="s">
@@ -1081,7 +1110,7 @@
       <c r="E19">
         <v>3.56</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>2045.9233999999999</v>
       </c>
       <c r="G19" t="s">

--- a/experiments/retrieval.xlsx
+++ b/experiments/retrieval.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CQS\Code\ChinaOpenDataPortal\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383240CF-6819-4A82-B8C9-9D9045FB56BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7ECC56-32AC-4C8E-872A-EB7F2B277E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>BM25</t>
   </si>
@@ -150,6 +151,121 @@
   </si>
   <si>
     <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeanSim@5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher (来源部门)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The entity responsible for making the dataset available.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A name given to the dataset.</t>
+  </si>
+  <si>
+    <t>title (标题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access rights (开放类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information about who can access the dataset.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description (描述)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A free-text account of the dataset.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most recent date on which the dataset was updated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update date (更新时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date of publication of the dataset.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The file formats of the dataset. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme (所属主题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record URL (详情页网址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A main category of the dataset.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The URL of the record describing the registration of the dataset in a PDOP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The size of the dataset.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry (所属行业)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size (数据规模)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update frequency (更新频率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format (数据格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release date (发布时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The industry classification of the dataset.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The frequency at which the dataset is published.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time (ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +279,7 @@
     <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +302,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,12 +328,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -217,6 +362,9 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -233,6 +381,1168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28472390389403573"/>
+          <c:y val="0.17759280089988755"/>
+          <c:w val="0.45780648205491159"/>
+          <c:h val="0.51028180563680403"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MeanSim@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$24:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$24:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.42199841582608999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26222309980522002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.178126690110678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.156359996206412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14644289135195601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13743407554393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-412E-47A5-AA77-1180EF9C1B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="9706320"/>
+        <c:axId val="1458352"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$24:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$24:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.7238000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.201599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323.34479999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>716.13710000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1280.7843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986.8932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-412E-47A5-AA77-1180EF9C1B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="9685440"/>
+        <c:axId val="130280112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="9706320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Re-ranking Numbers (τ)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1458352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1458352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9706320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130280112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9685440"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="9685440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130280112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19894235216053727"/>
+          <c:y val="0"/>
+          <c:w val="0.59792884165377547"/>
+          <c:h val="0.17236714900707156"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02FFD4E-D0AB-C1EB-7FCE-C6FC884EB855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+      <selection activeCell="A12" sqref="A12:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,26 +1934,75 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.71304431911245003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.70704729232445096</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.32666884611090902</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.43690422669329598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.66808458648692104</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.67631379451798901</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.29656129592474001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.41519834743327499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.56822310947224797</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.57973800124016295</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.25043249376580001</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.34737680013261901</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -652,7 +2011,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,7 +2407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +2430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +2453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1117,61 +2476,121 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.42199841582608999</v>
+      </c>
+      <c r="K24" s="7">
+        <v>8.7238000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.26222309980522002</v>
+      </c>
+      <c r="K25" s="7">
+        <v>88.201599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.178126690110678</v>
+      </c>
+      <c r="K26" s="7">
+        <v>323.34479999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.156359996206412</v>
+      </c>
+      <c r="K27" s="7">
+        <v>716.13710000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.14644289135195601</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1280.7843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.13743407554393</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1986.8932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1232,9 +2651,11 @@
     <hyperlink ref="C1" r:id="rId2" xr:uid="{599B71A8-12A8-4A45-9BA7-1945CE9C190C}"/>
     <hyperlink ref="D1" r:id="rId3" xr:uid="{58CCD571-2215-4D06-9610-EAB449CDBBD1}"/>
     <hyperlink ref="E1" r:id="rId4" xr:uid="{D9D87AC6-4F8D-4DD4-A595-6F419961C6BA}"/>
+    <hyperlink ref="J23" r:id="rId5" xr:uid="{1A141B35-34E3-48DB-AB76-7D4BDD7A1AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1470,4 +2891,167 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5095FE-066A-48A4-B035-66056A6158AD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.99180000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.95750000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.94569999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.93559999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.91310000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.87109999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.8448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.80410000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.61170000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.51049999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>